--- a/data/combined data/combined data - 1 cleaning/cleaning step 1 - combined data/family_toparse.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 1 - combined data/family_toparse.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FamilyRelationship</t>
+          <t>RelativeRelationship</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FamilyName</t>
+          <t>RelativeName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FamilySex</t>
+          <t>RelativeSex</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FamilyBirthString</t>
+          <t>RelativeBirthString</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FamilyCurrentOrganization</t>
+          <t>RelativeCurrentOrganization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FamilyCurrentPosition</t>
+          <t>RelativeCurrentPosition</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FamilyDeathReported</t>
+          <t>RelativeDeathReported</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
